--- a/Testy.xlsx
+++ b/Testy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\studia\SEM 4\Struktury danych\StrukturyDanych2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E016BA2C-9423-47C4-91AE-A7BF72A883D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5877203A-9034-4190-883E-D09BB0478AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C6FC2F51-066C-43BD-8E97-7855CFB8F5C5}"/>
   </bookViews>
@@ -157,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -169,6 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -331,34 +332,34 @@
             <c:numRef>
               <c:f>'Tablica '!$C$4:$K$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>29.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>29.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>29.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>30.09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42</c:v>
+                  <c:v>30.87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41</c:v>
+                  <c:v>30.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
+                  <c:v>30.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>30.86</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35</c:v>
+                  <c:v>30.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -440,8 +441,35 @@
             <c:numRef>
               <c:f>Heap!$C$4:$K$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>845.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>208.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>198.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>203.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>209.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>297.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>218.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>207.41</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -662,7 +690,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -931,34 +959,34 @@
             <c:numRef>
               <c:f>'Tablica '!$C$5:$K$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>12038</c:v>
+                  <c:v>10733.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18482</c:v>
+                  <c:v>16991.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22665</c:v>
+                  <c:v>21094.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34747</c:v>
+                  <c:v>34034.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43492</c:v>
+                  <c:v>42954.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90397</c:v>
+                  <c:v>85452.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>139688</c:v>
+                  <c:v>127750</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>193094</c:v>
+                  <c:v>170640</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>246645</c:v>
+                  <c:v>214873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1040,8 +1068,35 @@
             <c:numRef>
               <c:f>Heap!$C$5:$K$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>821.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>895.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>946.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1151.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1252.6099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1588.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1918.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2216.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2438.94</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1262,7 +1317,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1531,34 +1586,34 @@
             <c:numRef>
               <c:f>'Tablica '!$C$6:$K$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8759</c:v>
+                  <c:v>8104.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13828</c:v>
+                  <c:v>12674.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17186</c:v>
+                  <c:v>16060.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26255</c:v>
+                  <c:v>25548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32583</c:v>
+                  <c:v>32060.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64297</c:v>
+                  <c:v>64316.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96117</c:v>
+                  <c:v>97287.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>134347</c:v>
+                  <c:v>129733</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>167420</c:v>
+                  <c:v>161935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1640,8 +1695,35 @@
             <c:numRef>
               <c:f>Heap!$C$6:$K$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>30.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.78</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1862,7 +1944,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2131,34 +2213,34 @@
             <c:numRef>
               <c:f>'Tablica '!$C$7:$K$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1790</c:v>
+                  <c:v>1602.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2700</c:v>
+                  <c:v>2733.31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3177</c:v>
+                  <c:v>3222.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4822</c:v>
+                  <c:v>5513.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5901</c:v>
+                  <c:v>5979.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8559</c:v>
+                  <c:v>11388.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8562</c:v>
+                  <c:v>11727.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9156</c:v>
+                  <c:v>11398.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8125</c:v>
+                  <c:v>11604.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2240,8 +2322,35 @@
             <c:numRef>
               <c:f>Heap!$C$7:$K$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>139.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>156.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>172.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>193.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>265.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>375.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>379.94</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2462,7 +2571,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2731,34 +2840,34 @@
             <c:numRef>
               <c:f>'Tablica '!$C$8:$K$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>24.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>24.27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>24.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>24.74</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>24.39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37</c:v>
+                  <c:v>25.05</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49</c:v>
+                  <c:v>25.43</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46</c:v>
+                  <c:v>24.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2840,8 +2949,35 @@
             <c:numRef>
               <c:f>Heap!$C$8:$K$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>25.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.78</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3062,7 +3198,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6499,12 +6635,15 @@
   <dimension ref="B2:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -6557,160 +6696,160 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>40</v>
-      </c>
-      <c r="D4" s="1">
-        <v>43</v>
-      </c>
-      <c r="E4" s="1">
-        <v>44</v>
-      </c>
-      <c r="F4" s="1">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1">
-        <v>42</v>
-      </c>
-      <c r="H4" s="1">
-        <v>41</v>
-      </c>
-      <c r="I4" s="1">
-        <v>33</v>
-      </c>
-      <c r="J4" s="1">
-        <v>29</v>
-      </c>
-      <c r="K4" s="1">
-        <v>35</v>
+      <c r="C4" s="5">
+        <v>29.33</v>
+      </c>
+      <c r="D4" s="5">
+        <v>29.26</v>
+      </c>
+      <c r="E4" s="5">
+        <v>29.44</v>
+      </c>
+      <c r="F4" s="5">
+        <v>30.09</v>
+      </c>
+      <c r="G4" s="5">
+        <v>30.87</v>
+      </c>
+      <c r="H4" s="5">
+        <v>30.25</v>
+      </c>
+      <c r="I4" s="5">
+        <v>30.02</v>
+      </c>
+      <c r="J4" s="5">
+        <v>30.86</v>
+      </c>
+      <c r="K4" s="5">
+        <v>30.34</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>12038</v>
-      </c>
-      <c r="D5" s="1">
-        <v>18482</v>
-      </c>
-      <c r="E5" s="1">
-        <v>22665</v>
-      </c>
-      <c r="F5" s="1">
-        <v>34747</v>
-      </c>
-      <c r="G5" s="1">
-        <v>43492</v>
-      </c>
-      <c r="H5" s="1">
-        <v>90397</v>
-      </c>
-      <c r="I5" s="1">
-        <v>139688</v>
-      </c>
-      <c r="J5" s="1">
-        <v>193094</v>
-      </c>
-      <c r="K5" s="1">
-        <v>246645</v>
+      <c r="C5" s="5">
+        <v>10733.3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>16991.8</v>
+      </c>
+      <c r="E5" s="5">
+        <v>21094.7</v>
+      </c>
+      <c r="F5" s="5">
+        <v>34034.5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>42954.2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>85452.1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>127750</v>
+      </c>
+      <c r="J5" s="5">
+        <v>170640</v>
+      </c>
+      <c r="K5" s="5">
+        <v>214873</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>8759</v>
-      </c>
-      <c r="D6" s="1">
-        <v>13828</v>
-      </c>
-      <c r="E6" s="1">
-        <v>17186</v>
-      </c>
-      <c r="F6" s="1">
-        <v>26255</v>
-      </c>
-      <c r="G6" s="1">
-        <v>32583</v>
-      </c>
-      <c r="H6" s="1">
-        <v>64297</v>
-      </c>
-      <c r="I6" s="1">
-        <v>96117</v>
-      </c>
-      <c r="J6" s="1">
-        <v>134347</v>
-      </c>
-      <c r="K6" s="1">
-        <v>167420</v>
+      <c r="C6" s="5">
+        <v>8104.89</v>
+      </c>
+      <c r="D6" s="5">
+        <v>12674.3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>16060.5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>25548</v>
+      </c>
+      <c r="G6" s="5">
+        <v>32060.5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>64316.9</v>
+      </c>
+      <c r="I6" s="5">
+        <v>97287.6</v>
+      </c>
+      <c r="J6" s="5">
+        <v>129733</v>
+      </c>
+      <c r="K6" s="5">
+        <v>161935</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
-        <v>1790</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2700</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3177</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4822</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5901</v>
-      </c>
-      <c r="H7" s="1">
-        <v>8559</v>
-      </c>
-      <c r="I7" s="1">
-        <v>8562</v>
-      </c>
-      <c r="J7" s="1">
-        <v>9156</v>
-      </c>
-      <c r="K7" s="1">
-        <v>8125</v>
+      <c r="C7" s="5">
+        <v>1602.24</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2733.31</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3222.3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5513.93</v>
+      </c>
+      <c r="G7" s="5">
+        <v>5979.9</v>
+      </c>
+      <c r="H7" s="5">
+        <v>11388.1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>11727.7</v>
+      </c>
+      <c r="J7" s="5">
+        <v>11398.4</v>
+      </c>
+      <c r="K7" s="5">
+        <v>11604.9</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1">
-        <v>42</v>
-      </c>
-      <c r="E8" s="1">
-        <v>42</v>
-      </c>
-      <c r="F8" s="1">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1">
-        <v>45</v>
-      </c>
-      <c r="H8" s="1">
-        <v>43</v>
-      </c>
-      <c r="I8" s="1">
-        <v>37</v>
-      </c>
-      <c r="J8" s="1">
-        <v>49</v>
-      </c>
-      <c r="K8" s="1">
-        <v>46</v>
+      <c r="C8" s="5">
+        <v>24.82</v>
+      </c>
+      <c r="D8" s="5">
+        <v>24.27</v>
+      </c>
+      <c r="E8" s="5">
+        <v>24.64</v>
+      </c>
+      <c r="F8" s="5">
+        <v>24.74</v>
+      </c>
+      <c r="G8" s="5">
+        <v>24.39</v>
+      </c>
+      <c r="H8" s="5">
+        <v>25</v>
+      </c>
+      <c r="I8" s="5">
+        <v>25.05</v>
+      </c>
+      <c r="J8" s="5">
+        <v>25.43</v>
+      </c>
+      <c r="K8" s="5">
+        <v>24.67</v>
       </c>
     </row>
   </sheetData>
@@ -6726,7 +6865,7 @@
   <dimension ref="B2:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6784,71 +6923,161 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="C4" s="5">
+        <v>845.48</v>
+      </c>
+      <c r="D4" s="5">
+        <v>199.12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>208.71</v>
+      </c>
+      <c r="F4" s="5">
+        <v>198.25</v>
+      </c>
+      <c r="G4" s="5">
+        <v>203.11</v>
+      </c>
+      <c r="H4" s="5">
+        <v>209.44</v>
+      </c>
+      <c r="I4" s="5">
+        <v>297.42</v>
+      </c>
+      <c r="J4" s="5">
+        <v>218.73</v>
+      </c>
+      <c r="K4" s="5">
+        <v>207.41</v>
+      </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="C5" s="5">
+        <v>821.98</v>
+      </c>
+      <c r="D5" s="5">
+        <v>895.33</v>
+      </c>
+      <c r="E5" s="5">
+        <v>946.56</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1151.71</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1252.6099999999999</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1588.87</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1918.02</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2216.79</v>
+      </c>
+      <c r="K5" s="5">
+        <v>2438.94</v>
+      </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="C6" s="5">
+        <v>30.93</v>
+      </c>
+      <c r="D6" s="5">
+        <v>30.15</v>
+      </c>
+      <c r="E6" s="5">
+        <v>30.39</v>
+      </c>
+      <c r="F6" s="5">
+        <v>31.4</v>
+      </c>
+      <c r="G6" s="5">
+        <v>31.18</v>
+      </c>
+      <c r="H6" s="5">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="I6" s="5">
+        <v>37.57</v>
+      </c>
+      <c r="J6" s="5">
+        <v>35.33</v>
+      </c>
+      <c r="K6" s="5">
+        <v>39.78</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="C7" s="5">
+        <v>139.13999999999999</v>
+      </c>
+      <c r="D7" s="5">
+        <v>156.11000000000001</v>
+      </c>
+      <c r="E7" s="5">
+        <v>155.13</v>
+      </c>
+      <c r="F7" s="5">
+        <v>172.18</v>
+      </c>
+      <c r="G7" s="5">
+        <v>193.83</v>
+      </c>
+      <c r="H7" s="5">
+        <v>255.01</v>
+      </c>
+      <c r="I7" s="5">
+        <v>265.56</v>
+      </c>
+      <c r="J7" s="5">
+        <v>375.05</v>
+      </c>
+      <c r="K7" s="5">
+        <v>379.94</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="C8" s="5">
+        <v>25.46</v>
+      </c>
+      <c r="D8" s="5">
+        <v>25.67</v>
+      </c>
+      <c r="E8" s="5">
+        <v>25.92</v>
+      </c>
+      <c r="F8" s="5">
+        <v>25.46</v>
+      </c>
+      <c r="G8" s="5">
+        <v>25.72</v>
+      </c>
+      <c r="H8" s="5">
+        <v>25.25</v>
+      </c>
+      <c r="I8" s="5">
+        <v>24.69</v>
+      </c>
+      <c r="J8" s="5">
+        <v>25.42</v>
+      </c>
+      <c r="K8" s="5">
+        <v>25.78</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6878,7 +7107,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6923,7 +7152,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Testy.xlsx
+++ b/Testy.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\studia\SEM 4\Struktury danych\StrukturyDanych2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5877203A-9034-4190-883E-D09BB0478AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65010B0-582A-49A0-9340-8CB0776AB8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C6FC2F51-066C-43BD-8E97-7855CFB8F5C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{C6FC2F51-066C-43BD-8E97-7855CFB8F5C5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tablica " sheetId="7" r:id="rId1"/>
-    <sheet name="Heap" sheetId="8" r:id="rId2"/>
+    <sheet name="Heap" sheetId="8" r:id="rId1"/>
+    <sheet name="Tablica " sheetId="7" r:id="rId2"/>
     <sheet name="Insert" sheetId="9" r:id="rId3"/>
     <sheet name="extract" sheetId="10" r:id="rId4"/>
     <sheet name="find" sheetId="11" r:id="rId5"/>
@@ -160,6 +160,7 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -169,7 +170,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -335,31 +335,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>29.33</c:v>
+                  <c:v>31.58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.26</c:v>
+                  <c:v>29.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.44</c:v>
+                  <c:v>30.49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.09</c:v>
+                  <c:v>29.79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.87</c:v>
+                  <c:v>29.55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.25</c:v>
+                  <c:v>29.16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.02</c:v>
+                  <c:v>29.53</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.86</c:v>
+                  <c:v>29.51</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.34</c:v>
+                  <c:v>30.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -444,31 +444,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>845.48</c:v>
+                  <c:v>40.950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>199.12</c:v>
+                  <c:v>38.39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>208.71</c:v>
+                  <c:v>39.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>198.25</c:v>
+                  <c:v>38.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>203.11</c:v>
+                  <c:v>38.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>209.44</c:v>
+                  <c:v>37.76</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>297.42</c:v>
+                  <c:v>37.79</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>218.73</c:v>
+                  <c:v>38.020000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>207.41</c:v>
+                  <c:v>38.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,31 +962,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10733.3</c:v>
+                  <c:v>10688.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16991.8</c:v>
+                  <c:v>17058.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21094.7</c:v>
+                  <c:v>21375.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34034.5</c:v>
+                  <c:v>33916.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42954.2</c:v>
+                  <c:v>42441.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85452.1</c:v>
+                  <c:v>85584.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>127750</c:v>
+                  <c:v>127960</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>170640</c:v>
+                  <c:v>171232</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>214873</c:v>
+                  <c:v>215929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1071,31 +1071,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>821.98</c:v>
+                  <c:v>140.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>895.33</c:v>
+                  <c:v>157.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>946.56</c:v>
+                  <c:v>162.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1151.71</c:v>
+                  <c:v>172.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1252.6099999999999</c:v>
+                  <c:v>205.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1588.87</c:v>
+                  <c:v>260.95999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1918.02</c:v>
+                  <c:v>296.35000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2216.79</c:v>
+                  <c:v>315.68</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2438.94</c:v>
+                  <c:v>381.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1589,31 +1589,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8104.89</c:v>
+                  <c:v>8095.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12674.3</c:v>
+                  <c:v>12895.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16060.5</c:v>
+                  <c:v>16078.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25548</c:v>
+                  <c:v>25781.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32060.5</c:v>
+                  <c:v>32194.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64316.9</c:v>
+                  <c:v>65488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97287.6</c:v>
+                  <c:v>98134.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>129733</c:v>
+                  <c:v>131053</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>161935</c:v>
+                  <c:v>164949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1698,31 +1698,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>30.93</c:v>
+                  <c:v>4383.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.15</c:v>
+                  <c:v>7084.57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.39</c:v>
+                  <c:v>8912.31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.4</c:v>
+                  <c:v>14496</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.18</c:v>
+                  <c:v>18022.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.950000000000003</c:v>
+                  <c:v>36920.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.57</c:v>
+                  <c:v>56069.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.33</c:v>
+                  <c:v>75666.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.78</c:v>
+                  <c:v>95384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2216,31 +2216,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1602.24</c:v>
+                  <c:v>1681.59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2733.31</c:v>
+                  <c:v>2658.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3222.3</c:v>
+                  <c:v>3154.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5513.93</c:v>
+                  <c:v>5479.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5979.9</c:v>
+                  <c:v>5763.64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11388.1</c:v>
+                  <c:v>11214.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11727.7</c:v>
+                  <c:v>11429</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11398.4</c:v>
+                  <c:v>11487.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11604.9</c:v>
+                  <c:v>11257.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2325,31 +2325,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>139.13999999999999</c:v>
+                  <c:v>1720.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156.11000000000001</c:v>
+                  <c:v>2695.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>155.13</c:v>
+                  <c:v>3348.51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>172.18</c:v>
+                  <c:v>5374.49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>193.83</c:v>
+                  <c:v>6510.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>255.01</c:v>
+                  <c:v>12627.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>265.56</c:v>
+                  <c:v>19822.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>375.05</c:v>
+                  <c:v>25994.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>379.94</c:v>
+                  <c:v>31593.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2843,31 +2843,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>24.82</c:v>
+                  <c:v>26.39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.27</c:v>
+                  <c:v>25.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.64</c:v>
+                  <c:v>25.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.74</c:v>
+                  <c:v>24.71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.39</c:v>
+                  <c:v>24.77</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>24.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25.05</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25.43</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2952,31 +2952,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>25.46</c:v>
+                  <c:v>25.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.67</c:v>
+                  <c:v>25.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.92</c:v>
+                  <c:v>25.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.46</c:v>
+                  <c:v>25.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.72</c:v>
+                  <c:v>25.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.25</c:v>
+                  <c:v>25.16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.69</c:v>
+                  <c:v>24.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.42</c:v>
+                  <c:v>24.63</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.78</c:v>
+                  <c:v>24.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6631,11 +6631,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D0F108-18E1-4DD3-AE34-B0EA829166F9}">
+  <dimension ref="B2:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>16000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>60000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>80000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="D4" s="2">
+        <v>38.39</v>
+      </c>
+      <c r="E4" s="2">
+        <v>39.42</v>
+      </c>
+      <c r="F4" s="2">
+        <v>38.42</v>
+      </c>
+      <c r="G4" s="2">
+        <v>38.33</v>
+      </c>
+      <c r="H4" s="2">
+        <v>37.76</v>
+      </c>
+      <c r="I4" s="2">
+        <v>37.79</v>
+      </c>
+      <c r="J4" s="2">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="K4" s="2">
+        <v>38.97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>140.56</v>
+      </c>
+      <c r="D5" s="2">
+        <v>157.41</v>
+      </c>
+      <c r="E5" s="2">
+        <v>162.54</v>
+      </c>
+      <c r="F5" s="2">
+        <v>172.05</v>
+      </c>
+      <c r="G5" s="2">
+        <v>205.82</v>
+      </c>
+      <c r="H5" s="2">
+        <v>260.95999999999998</v>
+      </c>
+      <c r="I5" s="2">
+        <v>296.35000000000002</v>
+      </c>
+      <c r="J5" s="2">
+        <v>315.68</v>
+      </c>
+      <c r="K5" s="2">
+        <v>381.43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4383.05</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7084.57</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8912.31</v>
+      </c>
+      <c r="F6" s="2">
+        <v>14496</v>
+      </c>
+      <c r="G6" s="2">
+        <v>18022.7</v>
+      </c>
+      <c r="H6" s="2">
+        <v>36920.6</v>
+      </c>
+      <c r="I6" s="2">
+        <v>56069.8</v>
+      </c>
+      <c r="J6" s="2">
+        <v>75666.5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>95384</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1720.07</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2695.76</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3348.51</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5374.49</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6510.75</v>
+      </c>
+      <c r="H7" s="2">
+        <v>12627.7</v>
+      </c>
+      <c r="I7" s="2">
+        <v>19822.3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>25994.1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>31593.3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>25.93</v>
+      </c>
+      <c r="D8" s="2">
+        <v>25.84</v>
+      </c>
+      <c r="E8" s="2">
+        <v>25.34</v>
+      </c>
+      <c r="F8" s="2">
+        <v>25.24</v>
+      </c>
+      <c r="G8" s="2">
+        <v>25.24</v>
+      </c>
+      <c r="H8" s="2">
+        <v>25.16</v>
+      </c>
+      <c r="I8" s="2">
+        <v>24.76</v>
+      </c>
+      <c r="J8" s="2">
+        <v>24.63</v>
+      </c>
+      <c r="K8" s="2">
+        <v>24.91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1216F29-597E-4F27-93AA-1A06E96685DD}">
   <dimension ref="B2:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6647,18 +6874,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -6696,387 +6923,160 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
-        <v>29.33</v>
-      </c>
-      <c r="D4" s="5">
-        <v>29.26</v>
-      </c>
-      <c r="E4" s="5">
-        <v>29.44</v>
-      </c>
-      <c r="F4" s="5">
-        <v>30.09</v>
-      </c>
-      <c r="G4" s="5">
-        <v>30.87</v>
-      </c>
-      <c r="H4" s="5">
-        <v>30.25</v>
-      </c>
-      <c r="I4" s="5">
-        <v>30.02</v>
-      </c>
-      <c r="J4" s="5">
-        <v>30.86</v>
-      </c>
-      <c r="K4" s="5">
-        <v>30.34</v>
+      <c r="C4" s="2">
+        <v>31.58</v>
+      </c>
+      <c r="D4" s="2">
+        <v>29.45</v>
+      </c>
+      <c r="E4" s="2">
+        <v>30.49</v>
+      </c>
+      <c r="F4" s="2">
+        <v>29.79</v>
+      </c>
+      <c r="G4" s="2">
+        <v>29.55</v>
+      </c>
+      <c r="H4" s="2">
+        <v>29.16</v>
+      </c>
+      <c r="I4" s="2">
+        <v>29.53</v>
+      </c>
+      <c r="J4" s="2">
+        <v>29.51</v>
+      </c>
+      <c r="K4" s="2">
+        <v>30.29</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
-        <v>10733.3</v>
-      </c>
-      <c r="D5" s="5">
-        <v>16991.8</v>
-      </c>
-      <c r="E5" s="5">
-        <v>21094.7</v>
-      </c>
-      <c r="F5" s="5">
-        <v>34034.5</v>
-      </c>
-      <c r="G5" s="5">
-        <v>42954.2</v>
-      </c>
-      <c r="H5" s="5">
-        <v>85452.1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>127750</v>
-      </c>
-      <c r="J5" s="5">
-        <v>170640</v>
-      </c>
-      <c r="K5" s="5">
-        <v>214873</v>
+      <c r="C5" s="2">
+        <v>10688.6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>17058.599999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>21375.1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>33916.1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>42441.599999999999</v>
+      </c>
+      <c r="H5" s="2">
+        <v>85584.2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>127960</v>
+      </c>
+      <c r="J5" s="2">
+        <v>171232</v>
+      </c>
+      <c r="K5" s="2">
+        <v>215929</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5">
-        <v>8104.89</v>
-      </c>
-      <c r="D6" s="5">
-        <v>12674.3</v>
-      </c>
-      <c r="E6" s="5">
-        <v>16060.5</v>
-      </c>
-      <c r="F6" s="5">
-        <v>25548</v>
-      </c>
-      <c r="G6" s="5">
-        <v>32060.5</v>
-      </c>
-      <c r="H6" s="5">
-        <v>64316.9</v>
-      </c>
-      <c r="I6" s="5">
-        <v>97287.6</v>
-      </c>
-      <c r="J6" s="5">
-        <v>129733</v>
-      </c>
-      <c r="K6" s="5">
-        <v>161935</v>
+      <c r="C6" s="2">
+        <v>8095.12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12895.2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>16078.7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>25781.4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>32194.1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>65488</v>
+      </c>
+      <c r="I6" s="2">
+        <v>98134.2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>131053</v>
+      </c>
+      <c r="K6" s="2">
+        <v>164949</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5">
-        <v>1602.24</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2733.31</v>
-      </c>
-      <c r="E7" s="5">
-        <v>3222.3</v>
-      </c>
-      <c r="F7" s="5">
-        <v>5513.93</v>
-      </c>
-      <c r="G7" s="5">
-        <v>5979.9</v>
-      </c>
-      <c r="H7" s="5">
-        <v>11388.1</v>
-      </c>
-      <c r="I7" s="5">
-        <v>11727.7</v>
-      </c>
-      <c r="J7" s="5">
-        <v>11398.4</v>
-      </c>
-      <c r="K7" s="5">
-        <v>11604.9</v>
+      <c r="C7" s="2">
+        <v>1681.59</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2658.98</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3154.75</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5479.2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5763.64</v>
+      </c>
+      <c r="H7" s="2">
+        <v>11214.4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>11429</v>
+      </c>
+      <c r="J7" s="2">
+        <v>11487.7</v>
+      </c>
+      <c r="K7" s="2">
+        <v>11257.6</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5">
-        <v>24.82</v>
-      </c>
-      <c r="D8" s="5">
-        <v>24.27</v>
-      </c>
-      <c r="E8" s="5">
-        <v>24.64</v>
-      </c>
-      <c r="F8" s="5">
-        <v>24.74</v>
-      </c>
-      <c r="G8" s="5">
-        <v>24.39</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="C8" s="2">
+        <v>26.39</v>
+      </c>
+      <c r="D8" s="2">
+        <v>25.82</v>
+      </c>
+      <c r="E8" s="2">
+        <v>25.34</v>
+      </c>
+      <c r="F8" s="2">
+        <v>24.71</v>
+      </c>
+      <c r="G8" s="2">
+        <v>24.77</v>
+      </c>
+      <c r="H8" s="2">
+        <v>24.78</v>
+      </c>
+      <c r="I8" s="2">
+        <v>24.79</v>
+      </c>
+      <c r="J8" s="2">
+        <v>24.42</v>
+      </c>
+      <c r="K8" s="2">
         <v>25</v>
-      </c>
-      <c r="I8" s="5">
-        <v>25.05</v>
-      </c>
-      <c r="J8" s="5">
-        <v>25.43</v>
-      </c>
-      <c r="K8" s="5">
-        <v>24.67</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:K2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D0F108-18E1-4DD3-AE34-B0EA829166F9}">
-  <dimension ref="B2:K8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>8000</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F3" s="1">
-        <v>16000</v>
-      </c>
-      <c r="G3" s="1">
-        <v>20000</v>
-      </c>
-      <c r="H3" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I3" s="1">
-        <v>60000</v>
-      </c>
-      <c r="J3" s="1">
-        <v>80000</v>
-      </c>
-      <c r="K3" s="1">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>845.48</v>
-      </c>
-      <c r="D4" s="5">
-        <v>199.12</v>
-      </c>
-      <c r="E4" s="5">
-        <v>208.71</v>
-      </c>
-      <c r="F4" s="5">
-        <v>198.25</v>
-      </c>
-      <c r="G4" s="5">
-        <v>203.11</v>
-      </c>
-      <c r="H4" s="5">
-        <v>209.44</v>
-      </c>
-      <c r="I4" s="5">
-        <v>297.42</v>
-      </c>
-      <c r="J4" s="5">
-        <v>218.73</v>
-      </c>
-      <c r="K4" s="5">
-        <v>207.41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5">
-        <v>821.98</v>
-      </c>
-      <c r="D5" s="5">
-        <v>895.33</v>
-      </c>
-      <c r="E5" s="5">
-        <v>946.56</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1151.71</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1252.6099999999999</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1588.87</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1918.02</v>
-      </c>
-      <c r="J5" s="5">
-        <v>2216.79</v>
-      </c>
-      <c r="K5" s="5">
-        <v>2438.94</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5">
-        <v>30.93</v>
-      </c>
-      <c r="D6" s="5">
-        <v>30.15</v>
-      </c>
-      <c r="E6" s="5">
-        <v>30.39</v>
-      </c>
-      <c r="F6" s="5">
-        <v>31.4</v>
-      </c>
-      <c r="G6" s="5">
-        <v>31.18</v>
-      </c>
-      <c r="H6" s="5">
-        <v>32.950000000000003</v>
-      </c>
-      <c r="I6" s="5">
-        <v>37.57</v>
-      </c>
-      <c r="J6" s="5">
-        <v>35.33</v>
-      </c>
-      <c r="K6" s="5">
-        <v>39.78</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
-        <v>139.13999999999999</v>
-      </c>
-      <c r="D7" s="5">
-        <v>156.11000000000001</v>
-      </c>
-      <c r="E7" s="5">
-        <v>155.13</v>
-      </c>
-      <c r="F7" s="5">
-        <v>172.18</v>
-      </c>
-      <c r="G7" s="5">
-        <v>193.83</v>
-      </c>
-      <c r="H7" s="5">
-        <v>255.01</v>
-      </c>
-      <c r="I7" s="5">
-        <v>265.56</v>
-      </c>
-      <c r="J7" s="5">
-        <v>375.05</v>
-      </c>
-      <c r="K7" s="5">
-        <v>379.94</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5">
-        <v>25.46</v>
-      </c>
-      <c r="D8" s="5">
-        <v>25.67</v>
-      </c>
-      <c r="E8" s="5">
-        <v>25.92</v>
-      </c>
-      <c r="F8" s="5">
-        <v>25.46</v>
-      </c>
-      <c r="G8" s="5">
-        <v>25.72</v>
-      </c>
-      <c r="H8" s="5">
-        <v>25.25</v>
-      </c>
-      <c r="I8" s="5">
-        <v>24.69</v>
-      </c>
-      <c r="J8" s="5">
-        <v>25.42</v>
-      </c>
-      <c r="K8" s="5">
-        <v>25.78</v>
       </c>
     </row>
   </sheetData>
@@ -7092,7 +7092,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7137,7 +7137,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7151,7 +7151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE83AB-08AC-4579-958F-C1C4102E2EE4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>

--- a/Testy.xlsx
+++ b/Testy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\studia\SEM 4\Struktury danych\StrukturyDanych2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65010B0-582A-49A0-9340-8CB0776AB8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FA16BF-42EF-4342-8F7C-907914178024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{C6FC2F51-066C-43BD-8E97-7855CFB8F5C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C6FC2F51-066C-43BD-8E97-7855CFB8F5C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Heap" sheetId="8" r:id="rId1"/>
@@ -157,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -170,6 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1698,31 +1699,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4383.05</c:v>
+                  <c:v>24.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7084.57</c:v>
+                  <c:v>25.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8912.31</c:v>
+                  <c:v>24.91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14496</c:v>
+                  <c:v>25.61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18022.7</c:v>
+                  <c:v>24.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36920.6</c:v>
+                  <c:v>25.62</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56069.8</c:v>
+                  <c:v>27.69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75666.5</c:v>
+                  <c:v>27.72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95384</c:v>
+                  <c:v>29.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6632,10 +6633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D0F108-18E1-4DD3-AE34-B0EA829166F9}">
-  <dimension ref="B2:K8"/>
+  <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6758,31 +6759,31 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>4383.05</v>
+        <v>24.84</v>
       </c>
       <c r="D6" s="2">
-        <v>7084.57</v>
+        <v>25.41</v>
       </c>
       <c r="E6" s="2">
-        <v>8912.31</v>
+        <v>24.91</v>
       </c>
       <c r="F6" s="2">
-        <v>14496</v>
+        <v>25.61</v>
       </c>
       <c r="G6" s="2">
-        <v>18022.7</v>
+        <v>24.03</v>
       </c>
       <c r="H6" s="2">
-        <v>36920.6</v>
+        <v>25.62</v>
       </c>
       <c r="I6" s="2">
-        <v>56069.8</v>
+        <v>27.69</v>
       </c>
       <c r="J6" s="2">
-        <v>75666.5</v>
+        <v>27.72</v>
       </c>
       <c r="K6" s="2">
-        <v>95384</v>
+        <v>29.88</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -6847,6 +6848,11 @@
       </c>
       <c r="K8" s="2">
         <v>24.91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G12" s="6">
+        <v>45740</v>
       </c>
     </row>
   </sheetData>
@@ -6861,8 +6867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1216F29-597E-4F27-93AA-1A06E96685DD}">
   <dimension ref="B2:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7151,7 +7157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE83AB-08AC-4579-958F-C1C4102E2EE4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
